--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/ALASKA_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/ALASKA_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D130"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -400,7 +400,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C3">
@@ -641,7 +641,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -781,7 +781,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C38">
@@ -913,7 +913,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C39">
@@ -957,7 +957,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C42">
@@ -1066,7 +1066,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C50">
@@ -1092,7 +1092,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C52">
@@ -1105,7 +1105,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C53">
@@ -1125,7 +1125,7 @@
         <v>15</v>
       </c>
       <c r="D54">
-        <v>0.09316770186335403</v>
+        <v>0.09316770186335405</v>
       </c>
     </row>
     <row r="55">
@@ -1442,7 +1442,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C77">
@@ -1455,7 +1455,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C78">
@@ -1468,7 +1468,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C79">
@@ -1481,7 +1481,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C80">
@@ -1546,7 +1546,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C85">
@@ -1590,7 +1590,7 @@
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C88">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C94">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C97">
@@ -1945,7 +1945,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C113">
@@ -2041,7 +2041,7 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C120">
@@ -2101,41 +2101,6 @@
       </c>
       <c r="D124">
         <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/ALASKA_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/ALASKA_2015.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Rincón De Romos</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Total</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -517,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Chihuahua</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Guachochi</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Jiménez</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Total</t>
@@ -600,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -613,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Manzanillo</t>
@@ -626,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Total</t>
@@ -657,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -670,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -683,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -696,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -709,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -722,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Total</t>
@@ -753,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Tepehuanes</t>
@@ -766,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Total</t>
@@ -797,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Total</t>
@@ -828,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -841,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>León</t>
@@ -854,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -867,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Yuriria</t>
@@ -880,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Total</t>
@@ -911,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -924,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Total</t>
@@ -955,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -968,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Zempoala</t>
@@ -981,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1012,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Cihuatlán</t>
@@ -1025,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1038,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Ocotlán</t>
@@ -1051,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -1064,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Tamazula De Gordiano</t>
@@ -1077,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -1090,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Valle De Guadalupe</t>
@@ -1103,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Zapotitlán De Vadillo</t>
@@ -1116,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1147,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Charo</t>
@@ -1160,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Ecuandureo</t>
@@ -1173,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -1186,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Jiquilpan</t>
@@ -1199,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -1212,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Tacámbaro</t>
@@ -1225,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Villamar</t>
@@ -1238,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -1251,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -1264,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -1277,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1308,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Yautepec</t>
@@ -1321,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1352,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>San Blas</t>
@@ -1365,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Tecuala</t>
@@ -1378,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1409,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1440,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Huajuapan De León</t>
@@ -1453,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Mariscala De Juárez</t>
@@ -1466,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -1479,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Putla Villa De Guerrero</t>
@@ -1492,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>San Jacinto Tlacotepec</t>
@@ -1505,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>San Simón Almolongas</t>
@@ -1518,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Santa María Yucuhiti</t>
@@ -1531,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Santiago Juxtlahuaca</t>
@@ -1544,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Tlacolula De Matamoros</t>
@@ -1557,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1588,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Huehuetlán El Grande</t>
@@ -1601,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Libres</t>
@@ -1614,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Quimixtlán</t>
@@ -1627,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>San Pedro Cholula</t>
@@ -1640,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Tehuacán</t>
@@ -1653,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1684,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Tolimán</t>
@@ -1697,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1728,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1759,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>El Fuerte</t>
@@ -1772,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Guasave</t>
@@ -1785,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Mazatlán</t>
@@ -1798,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Mocorito</t>
@@ -1811,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Sinaloa</t>
@@ -1824,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1855,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1886,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Nuevo Laredo</t>
@@ -1899,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1930,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Papantla</t>
@@ -1943,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Poza Rica De Hidalgo</t>
@@ -1956,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1987,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -2000,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Monte Escobedo</t>
@@ -2013,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Ojocaliente</t>
@@ -2026,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Sombrerete</t>
@@ -2039,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Tlaltenango De Sánchez Román</t>
@@ -2052,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Villanueva</t>
@@ -2065,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -2078,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Total</t>
